--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H2">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I2">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J2">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N2">
         <v>0.130242</v>
       </c>
       <c r="O2">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P2">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q2">
-        <v>2.714366517874667</v>
+        <v>1.802884768920667</v>
       </c>
       <c r="R2">
-        <v>24.429298660872</v>
+        <v>16.225962920286</v>
       </c>
       <c r="S2">
-        <v>0.001333712721950698</v>
+        <v>0.001131829656402636</v>
       </c>
       <c r="T2">
-        <v>0.001333712721950698</v>
+        <v>0.001131829656402636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H3">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I3">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J3">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N3">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O3">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P3">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q3">
-        <v>676.458537781876</v>
+        <v>327.9332113694689</v>
       </c>
       <c r="R3">
-        <v>6088.126840036884</v>
+        <v>2951.398902325221</v>
       </c>
       <c r="S3">
-        <v>0.3323800790242112</v>
+        <v>0.2058725772970639</v>
       </c>
       <c r="T3">
-        <v>0.3323800790242112</v>
+        <v>0.2058725772970638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H4">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I4">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J4">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N4">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O4">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P4">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q4">
-        <v>194.3818798208613</v>
+        <v>112.5803269744721</v>
       </c>
       <c r="R4">
-        <v>1749.436918387752</v>
+        <v>1013.222942770249</v>
       </c>
       <c r="S4">
-        <v>0.0955101620678571</v>
+        <v>0.07067659286594162</v>
       </c>
       <c r="T4">
-        <v>0.0955101620678571</v>
+        <v>0.07067659286594159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H5">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I5">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J5">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N5">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O5">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P5">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q5">
-        <v>599.7070015828041</v>
+        <v>753.101728322693</v>
       </c>
       <c r="R5">
-        <v>5397.363014245236</v>
+        <v>6777.915554904236</v>
       </c>
       <c r="S5">
-        <v>0.294667964767028</v>
+        <v>0.472788325187306</v>
       </c>
       <c r="T5">
-        <v>0.2946679647670281</v>
+        <v>0.4727883251873058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I6">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J6">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N6">
         <v>0.130242</v>
       </c>
       <c r="O6">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P6">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q6">
-        <v>0.09372542819266669</v>
+        <v>0.09372542819266667</v>
       </c>
       <c r="R6">
-        <v>0.8435288537340002</v>
+        <v>0.8435288537340001</v>
       </c>
       <c r="S6">
-        <v>4.605229070122505E-05</v>
+        <v>5.883971123179632E-05</v>
       </c>
       <c r="T6">
-        <v>4.605229070122506E-05</v>
+        <v>5.883971123179632E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I7">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J7">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N7">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O7">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P7">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q7">
-        <v>23.357702687047</v>
+        <v>17.048056084361</v>
       </c>
       <c r="R7">
-        <v>210.219324183423</v>
+        <v>153.432504759249</v>
       </c>
       <c r="S7">
-        <v>0.01147688236798941</v>
+        <v>0.01070256723719887</v>
       </c>
       <c r="T7">
-        <v>0.01147688236798941</v>
+        <v>0.01070256723719887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I8">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J8">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N8">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O8">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P8">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q8">
-        <v>6.711888316899334</v>
+        <v>5.852642128686778</v>
       </c>
       <c r="R8">
-        <v>60.406994852094</v>
+        <v>52.673779158181</v>
       </c>
       <c r="S8">
-        <v>0.003297907919808137</v>
+        <v>0.003674219253360744</v>
       </c>
       <c r="T8">
-        <v>0.003297907919808137</v>
+        <v>0.003674219253360743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I9">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J9">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N9">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O9">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P9">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q9">
-        <v>20.707518731663</v>
+        <v>39.151022392817</v>
       </c>
       <c r="R9">
-        <v>186.367668584967</v>
+        <v>352.359201535353</v>
       </c>
       <c r="S9">
-        <v>0.01017470595462398</v>
+        <v>0.02457854710770141</v>
       </c>
       <c r="T9">
-        <v>0.01017470595462398</v>
+        <v>0.02457854710770141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.256754</v>
       </c>
       <c r="I10">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J10">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N10">
         <v>0.130242</v>
       </c>
       <c r="O10">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P10">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q10">
-        <v>0.003715572718666667</v>
+        <v>0.003715572718666666</v>
       </c>
       <c r="R10">
-        <v>0.03344015446800001</v>
+        <v>0.033440154468</v>
       </c>
       <c r="S10">
-        <v>1.825658610060813E-06</v>
+        <v>2.332592446285486E-06</v>
       </c>
       <c r="T10">
-        <v>1.825658610060814E-06</v>
+        <v>2.332592446285486E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.256754</v>
       </c>
       <c r="I11">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J11">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N11">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O11">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P11">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q11">
-        <v>0.9259732875939999</v>
+        <v>0.6758389192219999</v>
       </c>
       <c r="R11">
-        <v>8.333759588345998</v>
+        <v>6.082550272997999</v>
       </c>
       <c r="S11">
-        <v>0.0004549799541506332</v>
+        <v>0.0004242836507984416</v>
       </c>
       <c r="T11">
-        <v>0.0004549799541506332</v>
+        <v>0.0004242836507984415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.256754</v>
       </c>
       <c r="I12">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J12">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N12">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O12">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P12">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q12">
-        <v>0.2660805034653333</v>
+        <v>0.2320172640957777</v>
       </c>
       <c r="R12">
-        <v>2.394724531188</v>
+        <v>2.088155376861999</v>
       </c>
       <c r="S12">
-        <v>0.0001307395114837427</v>
+        <v>0.0001456576841892214</v>
       </c>
       <c r="T12">
-        <v>0.0001307395114837427</v>
+        <v>0.0001456576841892213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.256754</v>
       </c>
       <c r="I13">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J13">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N13">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O13">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P13">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q13">
-        <v>0.820911604826</v>
+        <v>1.552070484134</v>
       </c>
       <c r="R13">
-        <v>7.388204443434</v>
+        <v>13.968634357206</v>
       </c>
       <c r="S13">
-        <v>0.0004033575582897586</v>
+        <v>0.0009743714257576927</v>
       </c>
       <c r="T13">
-        <v>0.0004033575582897586</v>
+        <v>0.0009743714257576925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.93318133333333</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H14">
-        <v>62.799544</v>
+        <v>26.505206</v>
       </c>
       <c r="I14">
-        <v>0.242365207987117</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J14">
-        <v>0.2423652079871169</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N14">
         <v>0.130242</v>
       </c>
       <c r="O14">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P14">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q14">
-        <v>0.9087931344053335</v>
+        <v>0.3835656710946667</v>
       </c>
       <c r="R14">
-        <v>8.179138209648</v>
+        <v>3.452091039852</v>
       </c>
       <c r="S14">
-        <v>0.0004465384306047536</v>
+        <v>0.0002407979751156389</v>
       </c>
       <c r="T14">
-        <v>0.0004465384306047536</v>
+        <v>0.0002407979751156389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.93318133333333</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H15">
-        <v>62.799544</v>
+        <v>26.505206</v>
       </c>
       <c r="I15">
-        <v>0.242365207987117</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J15">
-        <v>0.2423652079871169</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N15">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O15">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P15">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q15">
-        <v>226.484106253784</v>
+        <v>69.76814295705799</v>
       </c>
       <c r="R15">
-        <v>2038.356956284056</v>
+        <v>627.913286613522</v>
       </c>
       <c r="S15">
-        <v>0.1112836943136258</v>
+        <v>0.04379961195091317</v>
       </c>
       <c r="T15">
-        <v>0.1112836943136258</v>
+        <v>0.04379961195091316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.93318133333333</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H16">
-        <v>62.799544</v>
+        <v>26.505206</v>
       </c>
       <c r="I16">
-        <v>0.242365207987117</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J16">
-        <v>0.2423652079871169</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N16">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O16">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P16">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q16">
-        <v>65.08071650261867</v>
+        <v>23.95158548811311</v>
       </c>
       <c r="R16">
-        <v>585.7264485235679</v>
+        <v>215.564269393018</v>
       </c>
       <c r="S16">
-        <v>0.03197761944881796</v>
+        <v>0.0150365210470655</v>
       </c>
       <c r="T16">
-        <v>0.03197761944881796</v>
+        <v>0.0150365210470655</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.93318133333333</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H17">
-        <v>62.799544</v>
+        <v>26.505206</v>
       </c>
       <c r="I17">
-        <v>0.242365207987117</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J17">
-        <v>0.2423652079871169</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N17">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O17">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P17">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q17">
-        <v>200.787035245336</v>
+        <v>160.223201619026</v>
       </c>
       <c r="R17">
-        <v>1807.083317208024</v>
+        <v>1442.008814571234</v>
       </c>
       <c r="S17">
-        <v>0.09865735579406848</v>
+        <v>0.1005862240129515</v>
       </c>
       <c r="T17">
-        <v>0.09865735579406848</v>
+        <v>0.1005862240129515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.082465</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H18">
-        <v>0.247395</v>
+        <v>0.950702</v>
       </c>
       <c r="I18">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J18">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N18">
         <v>0.130242</v>
       </c>
       <c r="O18">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P18">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q18">
-        <v>0.00358013551</v>
+        <v>0.01375792554266667</v>
       </c>
       <c r="R18">
-        <v>0.03222121959</v>
+        <v>0.123821329884</v>
       </c>
       <c r="S18">
-        <v>1.759111101817284E-06</v>
+        <v>8.637062339315082E-06</v>
       </c>
       <c r="T18">
-        <v>1.759111101817284E-06</v>
+        <v>8.637062339315082E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.082465</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H19">
-        <v>0.247395</v>
+        <v>0.950702</v>
       </c>
       <c r="I19">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J19">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N19">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O19">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P19">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q19">
-        <v>0.8922204190949999</v>
+        <v>2.502478684586</v>
       </c>
       <c r="R19">
-        <v>8.029983771854999</v>
+        <v>22.522308161274</v>
       </c>
       <c r="S19">
-        <v>0.000438395373614806</v>
+        <v>0.001571026411979482</v>
       </c>
       <c r="T19">
-        <v>0.000438395373614806</v>
+        <v>0.001571026411979482</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.082465</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H20">
-        <v>0.247395</v>
+        <v>0.950702</v>
       </c>
       <c r="I20">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J20">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N20">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O20">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P20">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q20">
-        <v>0.25638154091</v>
+        <v>0.8591074608784444</v>
       </c>
       <c r="R20">
-        <v>2.30743386819</v>
+        <v>7.731967147905999</v>
       </c>
       <c r="S20">
-        <v>0.0001259738950260581</v>
+        <v>0.0005393374657222912</v>
       </c>
       <c r="T20">
-        <v>0.0001259738950260581</v>
+        <v>0.0005393374657222911</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.082465</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H21">
-        <v>0.247395</v>
+        <v>0.950702</v>
       </c>
       <c r="I21">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J21">
-        <v>0.0009547830575007487</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N21">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O21">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P21">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q21">
-        <v>0.7909883642550001</v>
+        <v>5.746966019642</v>
       </c>
       <c r="R21">
-        <v>7.118895278295</v>
+        <v>51.722694176778</v>
       </c>
       <c r="S21">
-        <v>0.0003886546777580673</v>
+        <v>0.003607877046553082</v>
       </c>
       <c r="T21">
-        <v>0.0003886546777580674</v>
+        <v>0.003607877046553081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5874603333333334</v>
+        <v>2.411519</v>
       </c>
       <c r="H22">
-        <v>1.762381</v>
+        <v>7.234557</v>
       </c>
       <c r="I22">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796155</v>
       </c>
       <c r="J22">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796154</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.04341400000000001</v>
+        <v>0.043414</v>
       </c>
       <c r="N22">
         <v>0.130242</v>
       </c>
       <c r="O22">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="P22">
-        <v>0.001842419686857404</v>
+        <v>0.00150816245073376</v>
       </c>
       <c r="Q22">
-        <v>0.02550400291133334</v>
+        <v>0.104693685866</v>
       </c>
       <c r="R22">
-        <v>0.229536026202</v>
+        <v>0.9422431727939999</v>
       </c>
       <c r="S22">
-        <v>1.25314738888492E-05</v>
+        <v>6.572545319808762E-05</v>
       </c>
       <c r="T22">
-        <v>1.25314738888492E-05</v>
+        <v>6.572545319808762E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5874603333333334</v>
+        <v>2.411519</v>
       </c>
       <c r="H23">
-        <v>1.762381</v>
+        <v>7.234557</v>
       </c>
       <c r="I23">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796155</v>
       </c>
       <c r="J23">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796154</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.819383</v>
+        <v>7.896729</v>
       </c>
       <c r="N23">
-        <v>32.458149</v>
+        <v>23.690187</v>
       </c>
       <c r="O23">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="P23">
-        <v>0.4591570516158455</v>
+        <v>0.2743251062196607</v>
       </c>
       <c r="Q23">
-        <v>6.355958343641</v>
+        <v>19.043112021351</v>
       </c>
       <c r="R23">
-        <v>57.20362509276899</v>
+        <v>171.388008192159</v>
       </c>
       <c r="S23">
-        <v>0.003123020582253625</v>
+        <v>0.01195503967170685</v>
       </c>
       <c r="T23">
-        <v>0.003123020582253625</v>
+        <v>0.01195503967170685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5874603333333334</v>
+        <v>2.411519</v>
       </c>
       <c r="H24">
-        <v>1.762381</v>
+        <v>7.234557</v>
       </c>
       <c r="I24">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796155</v>
       </c>
       <c r="J24">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796154</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.108974</v>
+        <v>2.710967666666666</v>
       </c>
       <c r="N24">
-        <v>9.326922</v>
+        <v>8.132902999999999</v>
       </c>
       <c r="O24">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385363</v>
       </c>
       <c r="P24">
-        <v>0.1319398098200537</v>
+        <v>0.09417652462385362</v>
       </c>
       <c r="Q24">
-        <v>1.826398902364667</v>
+        <v>6.537550036552332</v>
       </c>
       <c r="R24">
-        <v>16.437590121282</v>
+        <v>58.83795032897099</v>
       </c>
       <c r="S24">
-        <v>0.0008974069770606495</v>
+        <v>0.004104196307574257</v>
       </c>
       <c r="T24">
-        <v>0.0008974069770606495</v>
+        <v>0.004104196307574256</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5874603333333334</v>
+        <v>2.411519</v>
       </c>
       <c r="H25">
-        <v>1.762381</v>
+        <v>7.234557</v>
       </c>
       <c r="I25">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796155</v>
       </c>
       <c r="J25">
-        <v>0.006801639158678337</v>
+        <v>0.04357982335796154</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.591807000000001</v>
+        <v>18.134913</v>
       </c>
       <c r="N25">
-        <v>28.775421</v>
+        <v>54.404739</v>
       </c>
       <c r="O25">
-        <v>0.4070607188772435</v>
+        <v>0.629990206705752</v>
       </c>
       <c r="P25">
-        <v>0.4070607188772436</v>
+        <v>0.6299902067057519</v>
       </c>
       <c r="Q25">
-        <v>5.634806137489001</v>
+        <v>43.73268726284699</v>
       </c>
       <c r="R25">
-        <v>50.713255237401</v>
+        <v>393.594185365623</v>
       </c>
       <c r="S25">
-        <v>0.002768680125475214</v>
+        <v>0.02745486192548235</v>
       </c>
       <c r="T25">
-        <v>0.002768680125475214</v>
+        <v>0.02745486192548234</v>
       </c>
     </row>
   </sheetData>
